--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarceloPablo\Documents\NetBeansProjects\laCartaDeNanaYRene\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaavi\Documents\laCartaDeNanaYRene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45139AF2-1ABC-4D66-8AEA-5FF500BED685}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F0EA9E-DA13-4F12-AA99-26D6595C4129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{778E779E-9277-4041-8CE5-9873CE8EAF3E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{778E779E-9277-4041-8CE5-9873CE8EAF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,34 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
-  <si>
-    <t>tipo de producto</t>
-  </si>
-  <si>
-    <t>cantidad</t>
-  </si>
-  <si>
-    <t>fecha de retiro estimado</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>correo electronico</t>
-  </si>
-  <si>
-    <t>numero telefonico</t>
-  </si>
-  <si>
-    <t>estado</t>
-  </si>
-  <si>
-    <t>precio cancelado</t>
-  </si>
-  <si>
-    <t>porcentaje descuento</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>torta</t>
   </si>
@@ -75,9 +48,6 @@
     <t>tartaleta durazno</t>
   </si>
   <si>
-    <t>fecha de solicitud</t>
-  </si>
-  <si>
     <t>alberto hurtado</t>
   </si>
   <si>
@@ -109,13 +79,58 @@
   </si>
   <si>
     <t>pendiente</t>
+  </si>
+  <si>
+    <t>Tipo de producto</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Fecha de solicitud</t>
+  </si>
+  <si>
+    <t>Fecha de retiro estimado</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Número telefónico</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Precio cancelado</t>
+  </si>
+  <si>
+    <t>Porcentaje descuento</t>
+  </si>
+  <si>
+    <t>9-48485930</t>
+  </si>
+  <si>
+    <t>9-47382938</t>
+  </si>
+  <si>
+    <t>9-62844758</t>
+  </si>
+  <si>
+    <t>9-37284547</t>
+  </si>
+  <si>
+    <t>9-38274654</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +142,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,11 +175,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -475,57 +498,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B026EEBC-916B-46C2-AF4A-CA939E223049}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" style="3"/>
+    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="2"/>
+    <col min="9" max="9" width="15.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3">
         <v>2</v>
       </c>
       <c r="C2" s="1">
@@ -534,30 +561,30 @@
       <c r="D2" s="1">
         <v>43744</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2">
-        <v>948485930</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
         <v>4</v>
       </c>
       <c r="C3" s="1">
@@ -566,30 +593,30 @@
       <c r="D3" s="1">
         <v>43745</v>
       </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3">
-        <v>947382938</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3">
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="1">
@@ -598,30 +625,30 @@
       <c r="D4" s="1">
         <v>43745</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4">
-        <v>962844758</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4">
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="1">
@@ -630,30 +657,30 @@
       <c r="D5" s="1">
         <v>43769</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>937284547</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5">
+      <c r="E5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="1">
@@ -662,19 +689,19 @@
       <c r="D6" s="1">
         <v>43799</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6">
-        <v>938274654</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6">
+      <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3">
@@ -690,5 +717,6 @@
     <hyperlink ref="F6" r:id="rId5" xr:uid="{568D2103-AB29-437B-8AD8-E149EFC4B464}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaavi\Documents\laCartaDeNanaYRene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F0EA9E-DA13-4F12-AA99-26D6595C4129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2357EE7-D518-4C1E-9C92-6F6188A716F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{778E779E-9277-4041-8CE5-9873CE8EAF3E}"/>
+    <workbookView xWindow="1596" yWindow="2376" windowWidth="17280" windowHeight="8904" xr2:uid="{778E779E-9277-4041-8CE5-9873CE8EAF3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,21 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
-    <t>torta</t>
-  </si>
-  <si>
-    <t>kuchen manzana</t>
-  </si>
-  <si>
-    <t>trozo queque</t>
-  </si>
-  <si>
-    <t>pie de limon</t>
-  </si>
-  <si>
-    <t>tartaleta durazno</t>
-  </si>
-  <si>
     <t>alberto hurtado</t>
   </si>
   <si>
@@ -84,9 +69,6 @@
     <t>Tipo de producto</t>
   </si>
   <si>
-    <t>Cantidad</t>
-  </si>
-  <si>
     <t>Fecha de solicitud</t>
   </si>
   <si>
@@ -124,6 +106,24 @@
   </si>
   <si>
     <t>9-38274654</t>
+  </si>
+  <si>
+    <t>Precio total</t>
+  </si>
+  <si>
+    <t>1-kuchen manzana</t>
+  </si>
+  <si>
+    <t>1-trozo queque</t>
+  </si>
+  <si>
+    <t>1-pie de limon</t>
+  </si>
+  <si>
+    <t>1-tartaleta durazno</t>
+  </si>
+  <si>
+    <t>1-torta,2-queques</t>
   </si>
 </sst>
 </file>
@@ -175,12 +175,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -499,79 +501,78 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="3"/>
-    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="2"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.21875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" style="2"/>
     <col min="9" max="9" width="15.33203125" style="3" customWidth="1"/>
     <col min="10" max="10" width="18.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43743</v>
       </c>
       <c r="C2" s="1">
-        <v>43743</v>
-      </c>
-      <c r="D2" s="1">
         <v>43744</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
+      <c r="H2" s="6">
+        <v>1000</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -581,29 +582,29 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43744</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43745</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43744</v>
-      </c>
-      <c r="D3" s="1">
-        <v>43745</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2000</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -614,28 +615,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
+        <v>27</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43745</v>
       </c>
       <c r="C4" s="1">
         <v>43745</v>
       </c>
-      <c r="D4" s="1">
-        <v>43745</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3000</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -646,28 +647,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43768</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43769</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43768</v>
-      </c>
-      <c r="D5" s="1">
-        <v>43769</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>13</v>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="H5" s="6">
+        <v>4900</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -678,28 +679,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43767</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43799</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43767</v>
-      </c>
-      <c r="D6" s="1">
-        <v>43799</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5000</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -710,11 +711,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{8AEBDDC4-71AA-4301-A4E9-AE4ECD6D45D1}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{D052FC99-0405-489B-9273-235369325D0D}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{8EDF48AF-E6B3-4977-88A4-293C119A9F81}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{B81AEA45-2423-44AD-B647-895F7CB12FA5}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{568D2103-AB29-437B-8AD8-E149EFC4B464}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{8AEBDDC4-71AA-4301-A4E9-AE4ECD6D45D1}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{D052FC99-0405-489B-9273-235369325D0D}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{8EDF48AF-E6B3-4977-88A4-293C119A9F81}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{B81AEA45-2423-44AD-B647-895F7CB12FA5}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{568D2103-AB29-437B-8AD8-E149EFC4B464}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>

--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -5,150 +5,145 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaavi\Documents\laCartaDeNanaYRene\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56992\Desktop\Utal\8vo semestre\Construcción de Software\Unidad 2\Proyecto\laCartaDeNanaYRene\Nana&amp;Rene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2357EE7-D518-4C1E-9C92-6F6188A716F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD8807BA-62CB-4082-8EF7-445253825F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1596" yWindow="2376" windowWidth="17280" windowHeight="8904" xr2:uid="{778E779E-9277-4041-8CE5-9873CE8EAF3E}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Prueba" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+  <si>
+    <t>Tipo de producto</t>
+  </si>
+  <si>
+    <t>Fecha de solicitud</t>
+  </si>
+  <si>
+    <t>Fecha de retiro estimado</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Correo electrónico</t>
+  </si>
+  <si>
+    <t>Número telefónico</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Precio total</t>
+  </si>
+  <si>
+    <t>Precio cancelado</t>
+  </si>
+  <si>
+    <t>Porcentaje descuento</t>
+  </si>
+  <si>
+    <t>2-queque,1-torta,</t>
+  </si>
+  <si>
+    <t>05-10-2019</t>
+  </si>
+  <si>
+    <t>06-10-2019</t>
+  </si>
   <si>
     <t>alberto hurtado</t>
   </si>
   <si>
+    <t>albhurt@gmail.com</t>
+  </si>
+  <si>
+    <t>9-48485930</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>1-kuchen manzana,</t>
+  </si>
+  <si>
+    <t>07-10-2019</t>
+  </si>
+  <si>
     <t>carmen ramirez</t>
   </si>
   <si>
+    <t>cramirez@gmail.com</t>
+  </si>
+  <si>
+    <t>9-47382938</t>
+  </si>
+  <si>
+    <t>1-queque,</t>
+  </si>
+  <si>
     <t>marcelo muñoz</t>
   </si>
   <si>
+    <t>mmuñoz@gmail.com</t>
+  </si>
+  <si>
+    <t>9-62844758</t>
+  </si>
+  <si>
+    <t>1-pie de limon,</t>
+  </si>
+  <si>
+    <t>30-10-2019</t>
+  </si>
+  <si>
+    <t>31-10-2019</t>
+  </si>
+  <si>
     <t>pedro casillas</t>
   </si>
   <si>
+    <t>pedrosillas@gmai.com</t>
+  </si>
+  <si>
+    <t>9-37284547</t>
+  </si>
+  <si>
+    <t>1-tartaleta durazno,</t>
+  </si>
+  <si>
+    <t>29-10-2019</t>
+  </si>
+  <si>
+    <t>30-11-2019</t>
+  </si>
+  <si>
     <t>lionel mauro</t>
   </si>
   <si>
-    <t>albhurt@gmail.com</t>
-  </si>
-  <si>
-    <t>cramirez@gmail.com</t>
-  </si>
-  <si>
-    <t>mmuñoz@gmail.com</t>
-  </si>
-  <si>
-    <t>pedrosillas@gmai.com</t>
-  </si>
-  <si>
     <t>limau@gmail.com</t>
   </si>
   <si>
-    <t>pendiente</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Fecha de solicitud</t>
-  </si>
-  <si>
-    <t>Fecha de retiro estimado</t>
-  </si>
-  <si>
-    <t>Nombre</t>
-  </si>
-  <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
-    <t>Número telefónico</t>
-  </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>Precio cancelado</t>
-  </si>
-  <si>
-    <t>Porcentaje descuento</t>
-  </si>
-  <si>
-    <t>9-48485930</t>
-  </si>
-  <si>
-    <t>9-47382938</t>
-  </si>
-  <si>
-    <t>9-62844758</t>
-  </si>
-  <si>
-    <t>9-37284547</t>
-  </si>
-  <si>
     <t>9-38274654</t>
-  </si>
-  <si>
-    <t>Precio total</t>
-  </si>
-  <si>
-    <t>1-kuchen manzana</t>
-  </si>
-  <si>
-    <t>1-trozo queque</t>
-  </si>
-  <si>
-    <t>1-pie de limon</t>
-  </si>
-  <si>
-    <t>1-tartaleta durazno</t>
-  </si>
-  <si>
-    <t>1-torta,2-queques</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -171,21 +166,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -497,227 +484,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B026EEBC-916B-46C2-AF4A-CA939E223049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="11.5546875" style="2"/>
-    <col min="9" max="9" width="15.33203125" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="24.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="1">
-        <v>43743</v>
-      </c>
-      <c r="C2" s="1">
-        <v>43744</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>700</v>
+      </c>
+      <c r="J2">
         <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43744</v>
-      </c>
-      <c r="C3" s="1">
-        <v>43745</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>2000</v>
       </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
+      <c r="I3">
+        <v>1200</v>
+      </c>
+      <c r="J3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43745</v>
-      </c>
-      <c r="C4" s="1">
-        <v>43745</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>3000</v>
+      </c>
+      <c r="I4">
+        <v>1700</v>
+      </c>
+      <c r="J4">
         <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>3000</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="1">
-        <v>43768</v>
-      </c>
-      <c r="C5" s="1">
-        <v>43769</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>4900</v>
+      </c>
+      <c r="I5">
+        <v>2500</v>
+      </c>
+      <c r="J5">
         <v>10</v>
-      </c>
-      <c r="H5" s="6">
-        <v>4900</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="1">
-        <v>43767</v>
-      </c>
-      <c r="C6" s="1">
-        <v>43799</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
         <v>5000</v>
       </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
+      <c r="I6">
+        <v>2700</v>
+      </c>
+      <c r="J6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{8AEBDDC4-71AA-4301-A4E9-AE4ECD6D45D1}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{D052FC99-0405-489B-9273-235369325D0D}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{8EDF48AF-E6B3-4977-88A4-293C119A9F81}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{B81AEA45-2423-44AD-B647-895F7CB12FA5}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{568D2103-AB29-437B-8AD8-E149EFC4B464}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isavo/Desktop/U/8º semestre/Construccion de Software/Repositorios/laCartaDeNanaYRene/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E0888-4CA8-364A-B645-EF3DC70034AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Prueba" r:id="rId3" sheetId="1"/>
+    <sheet name="Prueba" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Tipo de producto</t>
   </si>
@@ -126,16 +134,18 @@
   </si>
   <si>
     <t>9-38274654</t>
+  </si>
+  <si>
+    <t>Id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -147,7 +157,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -165,18 +175,328 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -207,8 +527,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -230,17 +553,20 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="n">
-        <v>1000.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20.0</v>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -262,17 +588,20 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="n">
-        <v>2000.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0</v>
+      <c r="H3">
+        <v>2000</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -294,17 +623,20 @@
       <c r="G4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10.0</v>
+      <c r="H4">
+        <v>3000</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -326,17 +658,20 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="n">
-        <v>4900.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.0</v>
+      <c r="H5">
+        <v>4900</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -358,17 +693,20 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="n">
-        <v>5000.0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.0</v>
+      <c r="H6">
+        <v>5000</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pedidos.xlsx
+++ b/pedidos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isavo/Desktop/U/8º semestre/Construccion de Software/Repositorios/laCartaDeNanaYRene/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\56992\Desktop\Utal\8vo semestre\Construcción de Software\Unidad 2\Proyecto\laCartaDeNanaYRene\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6E0888-4CA8-364A-B645-EF3DC70034AF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{731C6F96-6486-4FF3-9A55-600C4B2C2D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3048" yWindow="2664" windowWidth="10572" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prueba" sheetId="1" r:id="rId1"/>
@@ -52,18 +52,12 @@
     <t>Porcentaje descuento</t>
   </si>
   <si>
-    <t>1-torta,2-queque,</t>
-  </si>
-  <si>
     <t>05-10-2019</t>
   </si>
   <si>
     <t>06-10-2019</t>
   </si>
   <si>
-    <t>alberto hurtado</t>
-  </si>
-  <si>
     <t>albhurt@gmail.com</t>
   </si>
   <si>
@@ -73,63 +67,36 @@
     <t>Pendiente</t>
   </si>
   <si>
-    <t>1-kuchen manzana,</t>
-  </si>
-  <si>
     <t>07-10-2019</t>
   </si>
   <si>
-    <t>carmen ramirez</t>
-  </si>
-  <si>
     <t>cramirez@gmail.com</t>
   </si>
   <si>
     <t>9-47382938</t>
   </si>
   <si>
-    <t>1-queque,</t>
-  </si>
-  <si>
-    <t>marcelo muñoz</t>
-  </si>
-  <si>
     <t>mmuñoz@gmail.com</t>
   </si>
   <si>
     <t>9-62844758</t>
   </si>
   <si>
-    <t>1-pie de limon,</t>
-  </si>
-  <si>
     <t>30-10-2019</t>
   </si>
   <si>
     <t>31-10-2019</t>
   </si>
   <si>
-    <t>pedro casillas</t>
-  </si>
-  <si>
-    <t>pedrosillas@gmai.com</t>
-  </si>
-  <si>
     <t>9-37284547</t>
   </si>
   <si>
-    <t>1-tartaleta durazno,</t>
-  </si>
-  <si>
     <t>29-10-2019</t>
   </si>
   <si>
     <t>30-11-2019</t>
   </si>
   <si>
-    <t>lionel mauro</t>
-  </si>
-  <si>
     <t>limau@gmail.com</t>
   </si>
   <si>
@@ -137,16 +104,57 @@
   </si>
   <si>
     <t>Id</t>
+  </si>
+  <si>
+    <t>Alberto Hurtado</t>
+  </si>
+  <si>
+    <t>Carmen Ramirez</t>
+  </si>
+  <si>
+    <t>Marcelo Muñoz</t>
+  </si>
+  <si>
+    <t>Lionel Mauro</t>
+  </si>
+  <si>
+    <t>1-Torta,2-1-Queque,</t>
+  </si>
+  <si>
+    <t>1-Kuchen Manzana,</t>
+  </si>
+  <si>
+    <t>1-Queque,</t>
+  </si>
+  <si>
+    <t>1-Pie de Limon,</t>
+  </si>
+  <si>
+    <t>1-Tartaleta Durazno,</t>
+  </si>
+  <si>
+    <t>Pedro Casillas</t>
+  </si>
+  <si>
+    <t>pcasillas@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,13 +177,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -490,13 +501,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,30 +542,30 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
       <c r="H2">
         <v>1000</v>
@@ -566,27 +580,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>2000</v>
@@ -601,27 +615,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4">
         <v>3000</v>
@@ -636,27 +650,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5">
         <v>4900</v>
@@ -671,27 +685,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>5000</v>
@@ -707,6 +721,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{586F87A8-FD8C-4681-A8EE-B9E3745D7894}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>